--- a/sessies/metadata/Voorstel meta-informatie.xlsx
+++ b/sessies/metadata/Voorstel meta-informatie.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BakkerJesse\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2A63A8-F1C2-974E-B1C6-8FE9EC6B0A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66FE2E4-53A2-484D-A9B6-EAF7F1D353F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="33760" windowHeight="20060" xr2:uid="{E116C561-E918-B349-9B9B-ADD36732EA7D}"/>
+    <workbookView xWindow="11220" yWindow="-18210" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{E116C561-E918-B349-9B9B-ADD36732EA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Wijzigingshistorie" sheetId="2" r:id="rId1"/>
     <sheet name="Introductie" sheetId="4" r:id="rId2"/>
     <sheet name="Meta-velden (oud)" sheetId="1" r:id="rId3"/>
-    <sheet name="DCAT versies" sheetId="3" r:id="rId4"/>
+    <sheet name="DCAT dataset" sheetId="3" r:id="rId4"/>
+    <sheet name="DCAT distributie" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="283">
   <si>
     <t>Gegeven</t>
   </si>
@@ -565,18 +566,6 @@
     <t>W3C DCAT v3</t>
   </si>
   <si>
-    <t>Eigenschap</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>Bereik</t>
-  </si>
-  <si>
-    <t>Kardinaliteit</t>
-  </si>
-  <si>
     <t>Optionaliteit</t>
   </si>
   <si>
@@ -791,6 +780,117 @@
   </si>
   <si>
     <t>- Aangeven hoe een beschrijving is ontstaan vanuit andere beschrijvingen</t>
+  </si>
+  <si>
+    <t>Jesse Bakker</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>DCAT-AP-NLv3::Dataset</t>
+  </si>
+  <si>
+    <t>DCAT-AP-NLv3:Distributie</t>
+  </si>
+  <si>
+    <t>availability</t>
+  </si>
+  <si>
+    <t>byte size</t>
+  </si>
+  <si>
+    <t>checksum</t>
+  </si>
+  <si>
+    <t>compression format</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>licence</t>
+  </si>
+  <si>
+    <t>linked schemas</t>
+  </si>
+  <si>
+    <t>media type</t>
+  </si>
+  <si>
+    <t>packaging format</t>
+  </si>
+  <si>
+    <t>Sorted properties DCAT Distribtie</t>
+  </si>
+  <si>
+    <t>Splitsen Dataset /distributie. Toevoegen dcat-ap-nl optionaliteit. Verwijderd: Download URL bij dataset.</t>
+  </si>
+  <si>
+    <t>access URL</t>
+  </si>
+  <si>
+    <t>access service</t>
+  </si>
+  <si>
+    <t>in dcat-ap is voor conformsTo gekozen om alleen te verwijzen naar het bijbehorende schema. Zie linked schema</t>
+  </si>
+  <si>
+    <t>Hiermee verwijs je bijvoorbeeld naar het shacl-model van NL-SBB</t>
+  </si>
+  <si>
+    <t>minder relevant voor distributies.</t>
+  </si>
+  <si>
+    <t>Kan handig zijn</t>
+  </si>
+  <si>
+    <t>Goed om standaard te verklaren.</t>
+  </si>
+  <si>
+    <t>Kan handig zijn; vaak gelijk aan de publicatiedatum van de dataset.</t>
+  </si>
+  <si>
+    <t>vaak eerder relevant op een dataset</t>
+  </si>
+  <si>
+    <t>Kan handig zijn als je een distributie in een specifieke taal wilt publiceren.</t>
+  </si>
+  <si>
+    <t>Het is belangrijk dat je weet wat je krijgt voordat je een distributie download; ook om distributies van elkaar te kunnen onderscheiden.</t>
+  </si>
+  <si>
+    <t>Alleen nodig wanneer de distributie uit meerdere bestanden bestaat.</t>
+  </si>
+  <si>
+    <t>alleen relevant wanneer en distributie gecomprimeerd is.</t>
+  </si>
+  <si>
+    <t>Het kan zo zijn dat een bepaald publicatie formaat wordt voorgeschreven; komt niet heel snel voor.</t>
+  </si>
+  <si>
+    <t>Breder te zien dan download url (waar een "bestand" te downloaden is); onder access url valt bijv. ook een sparql endpoint .</t>
+  </si>
+  <si>
+    <t>zal niet snel gebruikt worden</t>
+  </si>
+  <si>
+    <t>niet direct essentieel; wel goed om te hebben.</t>
+  </si>
+  <si>
+    <t>AccessURL is vanuit DCAT-AP verplicht; download url is alternatief.</t>
+  </si>
+  <si>
+    <t>wanneer de bijbehorende service gemetadateerd is wil je dit kenmerk gebruiken.</t>
+  </si>
+  <si>
+    <t>Zal vaak vrije licentie zijn, maar zou optioneel waarde kunnen hebben. Kunnen ook wellicht uit gaan van de licentie bij de dataset.</t>
+  </si>
+  <si>
+    <t>Overige kenmerken</t>
   </si>
 </sst>
 </file>
@@ -800,7 +900,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -915,7 +1015,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -947,12 +1047,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1008,19 +1156,187 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1033,8 +1349,52 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{133FD471-87B9-42CC-9A51-265551BFF1AA}" name="Tabel1" displayName="Tabel1" ref="L5:M43" totalsRowShown="0">
+  <autoFilter ref="L5:M43" xr:uid="{133FD471-87B9-42CC-9A51-265551BFF1AA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{30FCEECE-D7BA-4799-9360-7CEF62EF1CD9}" name="DCAT-AP-NLv3::Dataset"/>
+    <tableColumn id="2" xr3:uid="{663E857C-16C4-43D5-8F17-BF8FF3A307AC}" name="Optionaliteit"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{789CF966-4BC4-41D3-B470-62E8728017C3}" name="Tabel25" displayName="Tabel25" ref="L5:M29" totalsRowShown="0">
+  <autoFilter ref="L5:M29" xr:uid="{F2CAEC14-8136-4C05-9ED3-2EFB805E687D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FEA492D8-57F7-48B3-B623-0921C8D6E772}" name="DCAT-AP-NLv3:Distributie" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2EC2A9A0-E82A-4CB1-90A4-CD505AD741DA}" name="Optionaliteit" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1B095D0C-1445-4F25-9502-282F1A1731F6}" name="Tabel5" displayName="Tabel5" ref="H5:J31" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="H5:J31" xr:uid="{1B095D0C-1445-4F25-9502-282F1A1731F6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F3355D46-8B6A-4B43-B5A3-48853250C81F}" name="W3C DCAT v3" dataDxfId="5" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{4B199C96-02E9-49F3-8C04-4B1AA8FB62EF}" name="DCAT-AP-NLv3" dataDxfId="4" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{660F4460-389B-4A73-B704-17BADA0700E7}" name="Oud SBB voorstel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{028DC4A4-80C5-46A8-BD62-2581E1D960A7}" name="Tabel6" displayName="Tabel6" ref="J33:J51" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="2">
+  <autoFilter ref="J33:J51" xr:uid="{028DC4A4-80C5-46A8-BD62-2581E1D960A7}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{84F43465-599D-422C-8004-9C99711C63A6}" name="Overige kenmerken" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1332,44 +1692,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F12BD-9210-2748-B977-A34CB11C8463}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:5" ht="36" customHeight="1">
+      <c r="A1" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="80.099999999999994" customHeight="1">
+      <c r="A3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="9" t="s">
         <v>73</v>
       </c>
@@ -1383,7 +1743,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -1397,7 +1757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1411,7 +1771,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -1425,7 +1785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>76</v>
       </c>
@@ -1439,39 +1799,47 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="8">
+        <v>45614</v>
+      </c>
+      <c r="D11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3">
       <c r="C17" s="8"/>
     </row>
   </sheetData>
@@ -1489,63 +1857,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F626BB5-BE88-F042-AD91-CACA0C22990D}">
   <dimension ref="B4:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="4" spans="2:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:2" ht="26.25">
+      <c r="B4" s="27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="26.25">
+      <c r="B5" s="27"/>
+    </row>
+    <row r="6" spans="2:2" ht="26.25">
+      <c r="B6" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="21">
+      <c r="B7" s="29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="26.25">
+      <c r="B12" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="21">
+      <c r="B13" s="29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="26.25">
+      <c r="B18" s="28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="21">
+      <c r="B19" s="29" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="B5" s="28"/>
-    </row>
-    <row r="6" spans="2:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B7" s="30" t="s">
+    <row r="20" spans="2:2" ht="21">
+      <c r="B20" s="30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="21">
+      <c r="B21" s="30" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="2:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B13" s="30" t="s">
+    <row r="22" spans="2:2" ht="21">
+      <c r="B22" s="30" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="26" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B19" s="30" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1561,21 +1929,21 @@
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="21.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="32.6640625" customWidth="1"/>
-    <col min="7" max="7" width="0.1640625" style="11" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="7" width="0.125" style="11" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
     <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="102" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1975,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="409.5">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -1635,7 +2003,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>122</v>
       </c>
@@ -1662,7 +2030,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="378">
       <c r="A4" s="2" t="s">
         <v>121</v>
       </c>
@@ -1687,7 +2055,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="47.25">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -1712,7 +2080,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="267.75">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1740,7 +2108,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="409.5">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1761,7 +2129,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="31.5">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1777,7 +2145,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="31.5">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1790,7 +2158,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="409.5">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -1811,7 +2179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="409.5">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -1830,7 +2198,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
@@ -1844,7 +2212,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="94.5">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1859,7 +2227,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="267.75">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1878,7 +2246,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="47.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -1894,7 +2262,7 @@
       </c>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="409.5">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1915,7 +2283,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="409.5">
       <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +2301,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="63">
       <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1949,7 +2317,7 @@
       </c>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="31.5">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
@@ -1965,7 +2333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="31.5">
       <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
@@ -1981,10 +2349,10 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="409.5">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +2370,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="141.75">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2019,7 +2387,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
         <v>15</v>
       </c>
@@ -2030,7 +2398,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="409.5">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
@@ -2046,7 +2414,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="409.5">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -2062,7 +2430,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="409.5">
       <c r="A27" s="2" t="s">
         <v>8</v>
       </c>
@@ -2083,7 +2451,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -2099,7 +2467,7 @@
       </c>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="409.5">
       <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
@@ -2120,20 +2488,20 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="47.25">
       <c r="A30" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="12"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="31.5">
       <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B31" s="2"/>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
@@ -2148,7 +2516,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>110</v>
       </c>
@@ -2175,111 +2543,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F954703D-160C-C241-BA01-84B2F22000ED}">
-  <dimension ref="A2:P65"/>
+  <dimension ref="A2:Q64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="133" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="10" width="20.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="133" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" customWidth="1"/>
+    <col min="8" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.875" customWidth="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="20" max="20" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="19.5">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-    </row>
-    <row r="4" spans="1:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="F2" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="23.25">
       <c r="A4" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="H5" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" t="s">
+        <v>249</v>
+      </c>
+      <c r="M5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="21">
+      <c r="B6" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="F6" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="J6" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="P6" s="15" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" t="s">
+        <v>141</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="21">
       <c r="A7" s="18" t="s">
         <v>141</v>
       </c>
@@ -2289,87 +2660,102 @@
       <c r="C7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B7,L:L,M:M)</f>
+        <v>V</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" t="s">
         <v>202</v>
       </c>
-      <c r="E7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="21" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" ht="21">
       <c r="B8" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D8" t="s">
-        <v>202</v>
+        <v>175</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f t="shared" ref="D8:D16" si="0">_xlfn.XLOOKUP(B8,L:L,M:M)</f>
+        <v>C</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="I8" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="J8" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-    </row>
-    <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K8" s="2"/>
+      <c r="L8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="21">
       <c r="C9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D9" t="s">
-        <v>203</v>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="I9" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="J9" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K9" s="2"/>
+      <c r="L9" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" ht="21">
       <c r="A10" s="18" t="s">
         <v>142</v>
       </c>
@@ -2379,31 +2765,36 @@
       <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>208</v>
+      <c r="D10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="I10" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K10" s="2"/>
+      <c r="L10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" ht="21">
       <c r="A11" s="18" t="s">
         <v>143</v>
       </c>
@@ -2413,90 +2804,105 @@
       <c r="C11" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>208</v>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="H11" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+      <c r="L11" t="s">
+        <v>176</v>
+      </c>
+      <c r="M11" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" ht="21">
       <c r="A12" s="18" t="s">
         <v>144</v>
       </c>
       <c r="B12" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D12" t="s">
-        <v>211</v>
+      <c r="D12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
-      </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="I12" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="J12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K12" s="2"/>
+      <c r="L12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" ht="21">
       <c r="B13" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" t="s">
-        <v>203</v>
+        <v>176</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-    </row>
-    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K13" s="2"/>
+      <c r="L13" t="s">
+        <v>177</v>
+      </c>
+      <c r="M13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="21">
       <c r="A14" s="18" t="s">
         <v>145</v>
       </c>
@@ -2506,1220 +2912,2532 @@
       <c r="C14" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="D14" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="21" t="s">
+      <c r="D14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="E14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="I14" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="J14" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-    </row>
-    <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K14" s="2"/>
+      <c r="L14" t="s">
+        <v>134</v>
+      </c>
+      <c r="M14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="21">
       <c r="A15" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D15" t="s">
-        <v>208</v>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="H15" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="K15" s="2"/>
+      <c r="L15" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="21">
       <c r="B16" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
-        <v>203</v>
+      <c r="D16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
       </c>
       <c r="E16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" t="s">
+        <v>212</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="H16" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2"/>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" ht="21">
+      <c r="A17" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="18">
+        <f>_xlfn.XLOOKUP(B17,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" ht="21">
+      <c r="A18" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B18,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" ht="21">
+      <c r="A19" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="18">
+        <f>_xlfn.XLOOKUP(B19,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" t="s">
+        <v>135</v>
+      </c>
+      <c r="M19" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" ht="21">
+      <c r="B20" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B20,L:L,M:M)</f>
+        <v>A</v>
+      </c>
+      <c r="E20" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" t="s">
+        <v>214</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" ht="21">
+      <c r="A21" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="18">
+        <f>_xlfn.XLOOKUP(B21,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" ht="21">
+      <c r="A22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B22,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E22" t="s">
+        <v>198</v>
+      </c>
+      <c r="F22" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" t="s">
+        <v>150</v>
+      </c>
+      <c r="M22" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" ht="21">
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="18">
+        <f>_xlfn.XLOOKUP(B23,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2"/>
+      <c r="L23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.95" customHeight="1">
+      <c r="C24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="18">
+        <f>_xlfn.XLOOKUP(B24,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" ht="21">
+      <c r="A25" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B25,L:L,M:M)</f>
+        <v>V</v>
+      </c>
+      <c r="E25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I25" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="2"/>
+      <c r="L25" t="s">
+        <v>182</v>
+      </c>
+      <c r="M25" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" ht="21">
+      <c r="A26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B26,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E26" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" t="s">
+        <v>183</v>
+      </c>
+      <c r="M26" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" ht="21">
+      <c r="A27" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B27,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E27" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" t="s">
         <v>216</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="H16" s="21" t="s">
+      <c r="G27" s="14"/>
+      <c r="H27" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" t="s">
+        <v>156</v>
+      </c>
+      <c r="M27" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" ht="21">
+      <c r="A28" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B28,L:L,M:M)</f>
+        <v>A</v>
+      </c>
+      <c r="E28" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" t="s">
+        <v>162</v>
+      </c>
+      <c r="M28" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" ht="21">
+      <c r="C29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="18">
+        <f>_xlfn.XLOOKUP(B29,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="I29" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" t="s">
+        <v>155</v>
+      </c>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" ht="21">
+      <c r="A30" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B30,L:L,M:M)</f>
+        <v>A</v>
+      </c>
+      <c r="E30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="L30" t="s">
+        <v>184</v>
+      </c>
+      <c r="M30" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" ht="21">
+      <c r="A31" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B31,L:L,M:M)</f>
+        <v>A</v>
+      </c>
+      <c r="E31" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="I31" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="L31" t="s">
+        <v>157</v>
+      </c>
+      <c r="M31" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" ht="21">
+      <c r="A32" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D32" s="18">
+        <f>_xlfn.XLOOKUP(B32,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I32" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="L32" t="s">
+        <v>185</v>
+      </c>
+      <c r="M32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="1:17" ht="21">
+      <c r="A33" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="18">
+        <f>_xlfn.XLOOKUP(B33,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>198</v>
+      </c>
+      <c r="F33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="L33" t="s">
+        <v>186</v>
+      </c>
+      <c r="M33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="1:17" ht="31.5">
+      <c r="C34" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="18">
+        <f>_xlfn.XLOOKUP(B34,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" s="14"/>
+      <c r="H34" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="J34" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="L34" t="s">
+        <v>137</v>
+      </c>
+      <c r="M34" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="1:17" ht="31.5">
+      <c r="C35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="18">
+        <f>_xlfn.XLOOKUP(B35,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="I35" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="K35" s="2"/>
+      <c r="L35" t="s">
+        <v>167</v>
+      </c>
+      <c r="M35" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="1:17" ht="21">
+      <c r="A36" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="18">
+        <f>_xlfn.XLOOKUP(B36,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="14"/>
+      <c r="H36" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="I36" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="J36" s="20"/>
+      <c r="K36" s="2"/>
+      <c r="L36" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="1:17" ht="21">
+      <c r="A37" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="18">
+        <f>_xlfn.XLOOKUP(B37,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" t="s">
+        <v>220</v>
+      </c>
+      <c r="G37" s="14"/>
+      <c r="H37" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>208</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" s="21" t="s">
+      <c r="I37" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="L37" t="s">
+        <v>139</v>
+      </c>
+      <c r="M37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="1:17" ht="21">
+      <c r="B38" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B38,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" t="s">
+        <v>187</v>
+      </c>
+      <c r="M38" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="1:17" ht="21">
+      <c r="B39" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D39" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B39,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="G39" s="14"/>
+      <c r="H39" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J39" s="20"/>
+      <c r="L39" t="s">
+        <v>159</v>
+      </c>
+      <c r="M39" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="40" spans="1:17" ht="21">
+      <c r="B40" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" t="s">
-        <v>202</v>
-      </c>
-      <c r="E20" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" t="s">
-        <v>218</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" t="s">
-        <v>218</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-    </row>
-    <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="C25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>203</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-    </row>
-    <row r="26" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>208</v>
-      </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-    </row>
-    <row r="27" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="D27" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H27" s="21" t="s">
+      <c r="D40" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B40,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J40" s="20"/>
+      <c r="L40" t="s">
+        <v>188</v>
+      </c>
+      <c r="M40" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="1:17" ht="21">
+      <c r="A41" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="I27" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="D28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="I28" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-    </row>
-    <row r="29" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" t="s">
-        <v>221</v>
-      </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="21" t="s">
+      <c r="B41" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-    </row>
-    <row r="30" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="C30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="H30" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="2"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" t="s">
-        <v>208</v>
-      </c>
-      <c r="E31" t="s">
-        <v>222</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="J31" s="2"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-    </row>
-    <row r="32" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D33" t="s">
-        <v>203</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H33" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-    </row>
-    <row r="34" spans="1:16" ht="51" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>202</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C41" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B41,L:L,M:M)</f>
+        <v>V</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
         <v>223</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="H34" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-    </row>
-    <row r="35" spans="1:16" ht="34" x14ac:dyDescent="0.25">
-      <c r="C35" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D35" t="s">
-        <v>203</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="H35" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="J35" s="2"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-    </row>
-    <row r="36" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="C36" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>203</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="G36" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="H36" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-    </row>
-    <row r="37" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="H37" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-    </row>
-    <row r="38" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" t="s">
-        <v>211</v>
-      </c>
-      <c r="E38" t="s">
-        <v>224</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="H38" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-    </row>
-    <row r="39" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="D39" t="s">
-        <v>203</v>
-      </c>
-      <c r="E39" t="s">
-        <v>225</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-    </row>
-    <row r="40" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="I40" s="20"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-    </row>
-    <row r="41" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="D41" t="s">
-        <v>203</v>
-      </c>
-      <c r="E41" t="s">
-        <v>226</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="21" t="s">
-        <v>168</v>
-      </c>
+      <c r="G41" s="14"/>
       <c r="H41" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I41" s="20"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-    </row>
-    <row r="42" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="I41" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" s="20"/>
+      <c r="L41" t="s">
+        <v>168</v>
+      </c>
+      <c r="M41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="1:17" ht="21">
       <c r="A42" s="18" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>211</v>
+        <v>162</v>
+      </c>
+      <c r="D42" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B42,L:L,M:M)</f>
+        <v>O</v>
       </c>
       <c r="E42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="14"/>
-      <c r="G42" s="21" t="s">
-        <v>169</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F42" t="s">
+        <v>224</v>
+      </c>
+      <c r="G42" s="14"/>
       <c r="H42" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="I42" s="20"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-    </row>
-    <row r="43" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="I42" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J42" s="20"/>
+      <c r="L42" t="s">
+        <v>169</v>
+      </c>
+      <c r="M42" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="1:17" ht="21">
       <c r="A43" s="18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" t="s">
-        <v>203</v>
+        <v>155</v>
+      </c>
+      <c r="D43" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B43,L:L,M:M)</f>
+        <v>O</v>
       </c>
       <c r="E43" t="s">
+        <v>199</v>
+      </c>
+      <c r="F43" t="s">
+        <v>224</v>
+      </c>
+      <c r="G43" s="14"/>
+      <c r="H43" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I43" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="20"/>
+      <c r="L43" t="s">
+        <v>140</v>
+      </c>
+      <c r="M43" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B44,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="L44" s="14"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B45,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E45" t="s">
+        <v>204</v>
+      </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="I45" s="21"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D46" s="18">
+        <f>_xlfn.XLOOKUP(B46,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="18">
+        <f>_xlfn.XLOOKUP(B47,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="B48" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D48" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B48,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E48" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="B49" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B49,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="D50" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B50,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E50" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="18">
+        <f>_xlfn.XLOOKUP(B51,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B52,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B53,L:L,M:M)</f>
+        <v>A</v>
+      </c>
+      <c r="E53" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" t="s">
         <v>228</v>
       </c>
-      <c r="F43" s="14"/>
-      <c r="G43" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="H43" s="21" t="s">
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B54,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E54" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B55,L:L,M:M)</f>
+        <v>V</v>
+      </c>
+      <c r="E55" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B56,L:L,M:M)</f>
+        <v>V</v>
+      </c>
+      <c r="E56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="18">
+        <f>_xlfn.XLOOKUP(B57,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="C58" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="18">
+        <f>_xlfn.XLOOKUP(B58,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B59,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E59" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="C60" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="18">
+        <f>_xlfn.XLOOKUP(B60,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="18">
+        <f>_xlfn.XLOOKUP(B61,L:L,M:M)</f>
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B62,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B63,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E63" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="I43" s="20"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D44" t="s">
-        <v>203</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="B64" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="18" t="str">
+        <f>_xlfn.XLOOKUP(B64,L:L,M:M)</f>
+        <v>O</v>
+      </c>
+      <c r="E64" t="s">
+        <v>199</v>
+      </c>
+      <c r="F64" t="s">
         <v>228</v>
-      </c>
-      <c r="F44" s="14"/>
-      <c r="G44" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D45" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="21"/>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D50" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D51" t="s">
-        <v>203</v>
-      </c>
-      <c r="E51" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>203</v>
-      </c>
-      <c r="E52" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D53" t="s">
-        <v>211</v>
-      </c>
-      <c r="E53" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" t="s">
-        <v>203</v>
-      </c>
-      <c r="E54" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>203</v>
-      </c>
-      <c r="E55" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" t="s">
-        <v>202</v>
-      </c>
-      <c r="E56" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" t="s">
-        <v>208</v>
-      </c>
-      <c r="E57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C58" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C59" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C61" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D64" t="s">
-        <v>202</v>
-      </c>
-      <c r="E64" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D65" t="s">
-        <v>203</v>
-      </c>
-      <c r="E65" t="s">
-        <v>232</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" location="dataset-access-rights" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-access-rights" xr:uid="{8BC38053-29FA-7C44-AA02-C18D68EDE398}"/>
-    <hyperlink ref="H7" r:id="rId2" location="dataset-applicable-legislation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-applicable-legislation" xr:uid="{2F829D9E-14F5-CC41-87CE-95200468B042}"/>
-    <hyperlink ref="H8" r:id="rId3" location="dataset-conforms-to" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-conforms-to" xr:uid="{4CFBAE0D-B006-044B-95DC-583D8A9F50CB}"/>
-    <hyperlink ref="H9" r:id="rId4" location="dataset-contact-point" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-contact-point" xr:uid="{0FFB4D4C-CC97-4649-A1A0-65C21C7967A7}"/>
-    <hyperlink ref="H10" r:id="rId5" location="dataset-creator" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-creator" xr:uid="{2B2A9237-9FF9-704D-8F6A-C6060706EDB8}"/>
-    <hyperlink ref="H11" r:id="rId6" location="dataset-dataset-distribution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-dataset-distribution" xr:uid="{D59B5AA1-C167-3440-B3F0-883A8C83D9D0}"/>
-    <hyperlink ref="H12" r:id="rId7" location="dataset-description" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-description" xr:uid="{9124FC5F-A3A1-BC4C-A789-C99865F4E0AC}"/>
-    <hyperlink ref="H13" r:id="rId8" location="dataset-documentation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-documentation" xr:uid="{39D97CFB-B962-584E-ADEC-9584CE5E0AE6}"/>
-    <hyperlink ref="H14" r:id="rId9" location="dataset-frequency" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-frequency" xr:uid="{D405A9A3-F04F-9247-B509-E3C4A1A6C70D}"/>
-    <hyperlink ref="H15" r:id="rId10" location="dataset-geographical-coverage" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-geographical-coverage" xr:uid="{63F6560E-BB7A-454A-8796-1C2ACA8AE498}"/>
-    <hyperlink ref="H16" r:id="rId11" location="dataset-has-version" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-has-version" xr:uid="{14241F37-0081-BD41-8C72-20AF4D7F3494}"/>
-    <hyperlink ref="H17" r:id="rId12" location="dataset-hvd-category" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-hvd-category" xr:uid="{C9393F7F-6A58-5D44-BC14-6EEFFC0BEA8C}"/>
-    <hyperlink ref="H18" r:id="rId13" location="dataset-identifier" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-identifier" xr:uid="{E8D45215-15E0-AE45-AB72-7752632B7397}"/>
-    <hyperlink ref="H19" r:id="rId14" location="dataset-in-series" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-in-series" xr:uid="{8E56F6BE-3372-DB4F-A95F-B19366E3C5AF}"/>
-    <hyperlink ref="H20" r:id="rId15" location="dataset-is-referenced-by" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-is-referenced-by" xr:uid="{205CF484-C91B-1A48-938E-6DC969BF9B2C}"/>
-    <hyperlink ref="H21" r:id="rId16" location="dataset-keyword" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-keyword" xr:uid="{1F084349-7D03-B847-85F3-D0D0DCB7030C}"/>
-    <hyperlink ref="H22" r:id="rId17" location="dataset-landing-page" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-landing-page" xr:uid="{F2C6E8BD-2F93-1244-BEB5-C0223C1241BE}"/>
-    <hyperlink ref="H23" r:id="rId18" location="dataset-language" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-language" xr:uid="{1CDE3858-A4EE-1F4F-BA89-EB654E63E8CA}"/>
-    <hyperlink ref="H24" r:id="rId19" location="dataset-modification-date" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-modification-date" xr:uid="{9A72CD99-C2AD-664B-9FC6-2ED6DC195AAC}"/>
-    <hyperlink ref="H25" r:id="rId20" location="dataset-other-identifier" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-other-identifier" xr:uid="{07803F3E-E487-3045-8623-5F1A5BE8406A}"/>
-    <hyperlink ref="H26" r:id="rId21" location="dataset-provenance" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-provenance" xr:uid="{B9EA3867-EEC7-0240-BF17-3967021AB243}"/>
-    <hyperlink ref="H27" r:id="rId22" location="dataset-publisher" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-publisher" xr:uid="{C8337061-5FC2-5B4A-B9C1-E5CCCA20930E}"/>
-    <hyperlink ref="H28" r:id="rId23" location="dataset-qualified-attribution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-qualified-attribution" xr:uid="{9AAA2907-8944-7F4E-A701-02B1D3F5EA68}"/>
-    <hyperlink ref="H29" r:id="rId24" location="dataset-qualified-relation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-qualified-relation" xr:uid="{2ADB5436-EA2A-AD4B-A7C2-7FEB4DDEFB8F}"/>
-    <hyperlink ref="H30" r:id="rId25" location="dataset-related-resource" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-related-resource" xr:uid="{EBF36E20-2B76-1F4D-9724-C96054F68747}"/>
-    <hyperlink ref="H31" r:id="rId26" location="dataset-release-date" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-release-date" xr:uid="{8E2B083C-43DB-CD43-AAE9-8A730B1340E0}"/>
-    <hyperlink ref="H32" r:id="rId27" location="dataset-sample" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-sample" xr:uid="{B48F01B7-7385-C84F-A509-2A9CC785F1BB}"/>
-    <hyperlink ref="H33" r:id="rId28" location="dataset-source" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-source" xr:uid="{8553AC32-DD56-EF4C-9DD1-4B362A49E621}"/>
-    <hyperlink ref="H34" r:id="rId29" location="dataset-spatial-resolution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-spatial-resolution" xr:uid="{7F3B02C2-7169-BD4B-B6EB-50234F46DDC9}"/>
-    <hyperlink ref="H35" r:id="rId30" location="dataset-status" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-status" xr:uid="{00D951EE-91C1-3440-B5EE-07D855439B09}"/>
-    <hyperlink ref="H36" r:id="rId31" location="dataset-temporal-coverage" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-temporal-coverage" xr:uid="{B02F2029-67B0-504C-8B08-063843BFC1D5}"/>
-    <hyperlink ref="H37" r:id="rId32" location="dataset-temporal-resolution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-temporal-resolution" xr:uid="{0184E27B-B209-714C-A20F-CB565E72031C}"/>
-    <hyperlink ref="H38" r:id="rId33" location="dataset-theme" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-theme" xr:uid="{98E20AAD-C81A-3B4C-8828-63A547D38279}"/>
-    <hyperlink ref="H39" r:id="rId34" location="dataset-title" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-title" xr:uid="{13BF4169-3DE0-4B40-85FA-386844DACCCD}"/>
-    <hyperlink ref="H40" r:id="rId35" location="dataset-type" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-type" xr:uid="{01F44226-6361-3F45-B206-3D27C103CB27}"/>
-    <hyperlink ref="H41" r:id="rId36" location="dataset-version" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-version" xr:uid="{E871A24D-829E-3045-A23A-93755C1F39B1}"/>
-    <hyperlink ref="H42" r:id="rId37" location="dataset-version-notes" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-version-notes" xr:uid="{61078F32-D7B3-6A4A-9AF2-F9D5335194B2}"/>
-    <hyperlink ref="H43" r:id="rId38" location="dataset-was-generated-by" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-was-generated-by" xr:uid="{D167F952-B911-7349-BCE7-AEF20FBA7727}"/>
-    <hyperlink ref="G45" r:id="rId39" location="Property:resource_previous" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_previous" xr:uid="{511D4C15-8137-9844-9A7B-D187ECFF4D53}"/>
-    <hyperlink ref="G44" r:id="rId40" location="Property:resource_last" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_last" xr:uid="{BE361C2E-728C-874E-B3A8-36BA7A736441}"/>
-    <hyperlink ref="G43" r:id="rId41" location="Property:resource_first" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_first" xr:uid="{CFDC6207-194F-5342-B4DB-F2A4EC72108F}"/>
-    <hyperlink ref="G42" r:id="rId42" location="Property:resource_version_notes" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_version_notes" xr:uid="{42094F3F-3FCB-E74E-8A6A-66EEAF967984}"/>
-    <hyperlink ref="G41" r:id="rId43" location="Property:resource_version" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_version" xr:uid="{B8D87404-4583-554F-88CD-5AA8B97C63F5}"/>
-    <hyperlink ref="G40" r:id="rId44" location="Property:resource_status" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_status" xr:uid="{B3B5637F-7628-4E44-A102-C5058D72490E}"/>
-    <hyperlink ref="G39" r:id="rId45" location="Property:resource_replaces" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_replaces" xr:uid="{E36526AC-BC78-DA40-ADB1-F4D2B1ACA6C4}"/>
-    <hyperlink ref="G38" r:id="rId46" location="Property:resource_previous_version" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_previous_version" xr:uid="{E3D8F61B-49F6-464E-BC82-5DBC69911BCF}"/>
-    <hyperlink ref="G37" r:id="rId47" location="Property:resource_has_version" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_has_version" xr:uid="{6CD6D21F-844A-C949-9E15-F1CEF560A7EA}"/>
-    <hyperlink ref="G36" r:id="rId48" location="Property:resource_has_current_version" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_has_current_version" xr:uid="{EEDE9931-ACF2-5643-8D6E-20FA16B55754}"/>
-    <hyperlink ref="G35" r:id="rId49" location="Property:resource_qualified_attribution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_qualified_attribution" xr:uid="{56F4ECA3-5259-4846-8948-5075D94F5468}"/>
-    <hyperlink ref="G34" r:id="rId50" location="Property:resource_update_date" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_update_date" xr:uid="{ECB7149F-7869-964C-988A-7AE78570C7DC}"/>
-    <hyperlink ref="G33" r:id="rId51" location="Property:resource_type" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_type" xr:uid="{3946DD32-D9FE-E84E-A4F9-D11E8416039F}"/>
-    <hyperlink ref="G32" r:id="rId52" location="Property:resource_title" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_title" xr:uid="{81970A81-2238-4446-8772-270338714FAF}"/>
-    <hyperlink ref="G31" r:id="rId53" location="Property:resource_theme" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_theme" xr:uid="{A1269B6F-09D2-5C46-9388-7B012C59498F}"/>
-    <hyperlink ref="G30" r:id="rId54" location="Property:resource_release_date" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_release_date" xr:uid="{C7728A15-3E9C-9840-ABD4-3635E9E18CFD}"/>
-    <hyperlink ref="G29" r:id="rId55" location="Property:resource_publisher" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_publisher" xr:uid="{09F30512-D7C0-3443-9DC1-BBC017A1ED29}"/>
-    <hyperlink ref="G28" r:id="rId56" location="Property:resource_qualified_relation" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_qualified_relation" xr:uid="{D42CEE26-23BD-3246-B56F-7EBE46608A40}"/>
-    <hyperlink ref="G27" r:id="rId57" location="Property:resource_rights" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_rights" xr:uid="{4F81FDC3-502D-C840-851B-8C75E2571FC4}"/>
-    <hyperlink ref="G26" r:id="rId58" location="Property:resource_relation" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_relation" xr:uid="{C53593DA-DA12-DA4B-8726-B7BC9FC75366}"/>
-    <hyperlink ref="G25" r:id="rId59" location="Property:resource_language" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_language" xr:uid="{EEEFA9D2-465B-8740-8E35-E0AFD5DA0039}"/>
-    <hyperlink ref="G24" r:id="rId60" location="Property:resource_license" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_license" xr:uid="{B90B449D-9A4A-0349-B0CC-07CA5E6E5B36}"/>
-    <hyperlink ref="G23" r:id="rId61" location="Property:resource_landing_page" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_landing_page" xr:uid="{1B734D2C-8E73-5847-A0A1-B3C9195B82A8}"/>
-    <hyperlink ref="G22" r:id="rId62" location="Property:resource_keyword" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_keyword" xr:uid="{67A0F5EE-6C64-4A4C-B5C0-C92AF4420BA3}"/>
-    <hyperlink ref="G21" r:id="rId63" location="Property:resource_is_referenced_by" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_is_referenced_by" xr:uid="{EC2E9B94-1195-8241-9595-1316393422DC}"/>
-    <hyperlink ref="G20" r:id="rId64" location="Property:resource_identifier" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_identifier" xr:uid="{36E633C2-799A-534C-8CB3-9DB957162DD4}"/>
-    <hyperlink ref="G19" r:id="rId65" location="Property:resource_has_policy" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_has_policy" xr:uid="{7E16FC58-B149-384D-810D-26DF97EB1462}"/>
-    <hyperlink ref="G18" r:id="rId66" location="Property:resource_description" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_description" xr:uid="{BEAF687C-5273-744F-983E-3D4027D3730D}"/>
-    <hyperlink ref="G17" r:id="rId67" location="Property:resource_creator" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_creator" xr:uid="{53FE8331-5F14-0643-B21F-3CFA62DAF315}"/>
-    <hyperlink ref="G16" r:id="rId68" location="Property:resource_contact_point" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_contact_point" xr:uid="{9FA13E35-2375-FF46-86EB-33D214472BF2}"/>
-    <hyperlink ref="G15" r:id="rId69" location="Property:resource_conforms_to" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_conforms_to" xr:uid="{D8F5F31E-EF98-7845-8438-1C458BACDED4}"/>
-    <hyperlink ref="G14" r:id="rId70" location="Property:resource_access_rights" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_access_rights" xr:uid="{943CCEA7-11B0-B641-86C2-5D84FF8DF1AE}"/>
-    <hyperlink ref="G13" r:id="rId71" location="Property:dataset_was_generated_by" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_was_generated_by" xr:uid="{7F4111B8-AC9D-9C4A-B6AF-A7FACBC34E95}"/>
-    <hyperlink ref="G12" r:id="rId72" location="Property:dataset_temporal_resolution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_temporal_resolution" xr:uid="{415C4DF4-BD5A-954F-B48A-C9DA78AF8EEF}"/>
-    <hyperlink ref="G11" r:id="rId73" location="Property:dataset_temporal" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_temporal" xr:uid="{3BF61A19-6225-5E42-B7D9-E985B1AE2111}"/>
-    <hyperlink ref="G10" r:id="rId74" location="Property:dataset_spatial_resolution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_spatial_resolution" xr:uid="{DF3F8F18-359B-DC47-803F-A2B70CC5831C}"/>
-    <hyperlink ref="G9" r:id="rId75" location="Property:dataset_spatial" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_spatial" xr:uid="{48E54848-5D70-E04F-9729-085CFE9E9019}"/>
-    <hyperlink ref="G8" r:id="rId76" location="Property:dataset_in_series" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_in_series" xr:uid="{0F7EC03F-DF2B-6246-A389-4E9DE1302051}"/>
-    <hyperlink ref="G7" r:id="rId77" location="Property:dataset_frequency" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_frequency" xr:uid="{9E1C1A79-9AFF-214C-81A6-930D912CC2B9}"/>
-    <hyperlink ref="G6" r:id="rId78" location="Property:dataset_distribution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_distribution" xr:uid="{8E0EEA2D-E1BD-074F-9F21-CAC56ABF3E36}"/>
+    <hyperlink ref="I6" r:id="rId1" location="dataset-access-rights" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-access-rights" xr:uid="{8BC38053-29FA-7C44-AA02-C18D68EDE398}"/>
+    <hyperlink ref="I7" r:id="rId2" location="dataset-applicable-legislation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-applicable-legislation" xr:uid="{2F829D9E-14F5-CC41-87CE-95200468B042}"/>
+    <hyperlink ref="I8" r:id="rId3" location="dataset-conforms-to" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-conforms-to" xr:uid="{4CFBAE0D-B006-044B-95DC-583D8A9F50CB}"/>
+    <hyperlink ref="I9" r:id="rId4" location="dataset-contact-point" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-contact-point" xr:uid="{0FFB4D4C-CC97-4649-A1A0-65C21C7967A7}"/>
+    <hyperlink ref="I10" r:id="rId5" location="dataset-creator" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-creator" xr:uid="{2B2A9237-9FF9-704D-8F6A-C6060706EDB8}"/>
+    <hyperlink ref="I11" r:id="rId6" location="dataset-dataset-distribution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-dataset-distribution" xr:uid="{D59B5AA1-C167-3440-B3F0-883A8C83D9D0}"/>
+    <hyperlink ref="I12" r:id="rId7" location="dataset-description" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-description" xr:uid="{9124FC5F-A3A1-BC4C-A789-C99865F4E0AC}"/>
+    <hyperlink ref="I13" r:id="rId8" location="dataset-documentation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-documentation" xr:uid="{39D97CFB-B962-584E-ADEC-9584CE5E0AE6}"/>
+    <hyperlink ref="I14" r:id="rId9" location="dataset-frequency" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-frequency" xr:uid="{D405A9A3-F04F-9247-B509-E3C4A1A6C70D}"/>
+    <hyperlink ref="I15" r:id="rId10" location="dataset-geographical-coverage" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-geographical-coverage" xr:uid="{63F6560E-BB7A-454A-8796-1C2ACA8AE498}"/>
+    <hyperlink ref="I16" r:id="rId11" location="dataset-has-version" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-has-version" xr:uid="{14241F37-0081-BD41-8C72-20AF4D7F3494}"/>
+    <hyperlink ref="I18" r:id="rId12" location="dataset-identifier" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-identifier" xr:uid="{E8D45215-15E0-AE45-AB72-7752632B7397}"/>
+    <hyperlink ref="I19" r:id="rId13" location="dataset-in-series" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-in-series" xr:uid="{8E56F6BE-3372-DB4F-A95F-B19366E3C5AF}"/>
+    <hyperlink ref="I20" r:id="rId14" location="dataset-is-referenced-by" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-is-referenced-by" xr:uid="{205CF484-C91B-1A48-938E-6DC969BF9B2C}"/>
+    <hyperlink ref="I21" r:id="rId15" location="dataset-keyword" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-keyword" xr:uid="{1F084349-7D03-B847-85F3-D0D0DCB7030C}"/>
+    <hyperlink ref="I22" r:id="rId16" location="dataset-landing-page" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-landing-page" xr:uid="{F2C6E8BD-2F93-1244-BEB5-C0223C1241BE}"/>
+    <hyperlink ref="I23" r:id="rId17" location="dataset-language" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-language" xr:uid="{1CDE3858-A4EE-1F4F-BA89-EB654E63E8CA}"/>
+    <hyperlink ref="I24" r:id="rId18" location="dataset-modification-date" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-modification-date" xr:uid="{9A72CD99-C2AD-664B-9FC6-2ED6DC195AAC}"/>
+    <hyperlink ref="I25" r:id="rId19" location="dataset-other-identifier" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-other-identifier" xr:uid="{07803F3E-E487-3045-8623-5F1A5BE8406A}"/>
+    <hyperlink ref="I26" r:id="rId20" location="dataset-provenance" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-provenance" xr:uid="{B9EA3867-EEC7-0240-BF17-3967021AB243}"/>
+    <hyperlink ref="I27" r:id="rId21" location="dataset-publisher" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-publisher" xr:uid="{C8337061-5FC2-5B4A-B9C1-E5CCCA20930E}"/>
+    <hyperlink ref="I28" r:id="rId22" location="dataset-qualified-attribution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-qualified-attribution" xr:uid="{9AAA2907-8944-7F4E-A701-02B1D3F5EA68}"/>
+    <hyperlink ref="I29" r:id="rId23" location="dataset-qualified-relation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-qualified-relation" xr:uid="{2ADB5436-EA2A-AD4B-A7C2-7FEB4DDEFB8F}"/>
+    <hyperlink ref="I30" r:id="rId24" location="dataset-related-resource" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-related-resource" xr:uid="{EBF36E20-2B76-1F4D-9724-C96054F68747}"/>
+    <hyperlink ref="I31" r:id="rId25" location="dataset-release-date" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-release-date" xr:uid="{8E2B083C-43DB-CD43-AAE9-8A730B1340E0}"/>
+    <hyperlink ref="I32" r:id="rId26" location="dataset-sample" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-sample" xr:uid="{B48F01B7-7385-C84F-A509-2A9CC785F1BB}"/>
+    <hyperlink ref="I33" r:id="rId27" location="dataset-source" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-source" xr:uid="{8553AC32-DD56-EF4C-9DD1-4B362A49E621}"/>
+    <hyperlink ref="I34" r:id="rId28" location="dataset-spatial-resolution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-spatial-resolution" xr:uid="{7F3B02C2-7169-BD4B-B6EB-50234F46DDC9}"/>
+    <hyperlink ref="I35" r:id="rId29" location="dataset-status" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-status" xr:uid="{00D951EE-91C1-3440-B5EE-07D855439B09}"/>
+    <hyperlink ref="I36" r:id="rId30" location="dataset-temporal-coverage" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-temporal-coverage" xr:uid="{B02F2029-67B0-504C-8B08-063843BFC1D5}"/>
+    <hyperlink ref="I37" r:id="rId31" location="dataset-temporal-resolution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-temporal-resolution" xr:uid="{0184E27B-B209-714C-A20F-CB565E72031C}"/>
+    <hyperlink ref="I38" r:id="rId32" location="dataset-theme" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-theme" xr:uid="{98E20AAD-C81A-3B4C-8828-63A547D38279}"/>
+    <hyperlink ref="I39" r:id="rId33" location="dataset-title" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-title" xr:uid="{13BF4169-3DE0-4B40-85FA-386844DACCCD}"/>
+    <hyperlink ref="I40" r:id="rId34" location="dataset-type" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-type" xr:uid="{01F44226-6361-3F45-B206-3D27C103CB27}"/>
+    <hyperlink ref="I41" r:id="rId35" location="dataset-version" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-version" xr:uid="{E871A24D-829E-3045-A23A-93755C1F39B1}"/>
+    <hyperlink ref="I42" r:id="rId36" location="dataset-version-notes" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-version-notes" xr:uid="{61078F32-D7B3-6A4A-9AF2-F9D5335194B2}"/>
+    <hyperlink ref="I43" r:id="rId37" location="dataset-was-generated-by" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-was-generated-by" xr:uid="{D167F952-B911-7349-BCE7-AEF20FBA7727}"/>
+    <hyperlink ref="H45" r:id="rId38" location="Property:resource_previous" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_previous" xr:uid="{511D4C15-8137-9844-9A7B-D187ECFF4D53}"/>
+    <hyperlink ref="H44" r:id="rId39" location="Property:resource_last" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_last" xr:uid="{BE361C2E-728C-874E-B3A8-36BA7A736441}"/>
+    <hyperlink ref="H43" r:id="rId40" location="Property:resource_first" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_first" xr:uid="{CFDC6207-194F-5342-B4DB-F2A4EC72108F}"/>
+    <hyperlink ref="H42" r:id="rId41" location="Property:resource_version_notes" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_version_notes" xr:uid="{42094F3F-3FCB-E74E-8A6A-66EEAF967984}"/>
+    <hyperlink ref="H41" r:id="rId42" location="Property:resource_version" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_version" xr:uid="{B8D87404-4583-554F-88CD-5AA8B97C63F5}"/>
+    <hyperlink ref="H40" r:id="rId43" location="Property:resource_status" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_status" xr:uid="{B3B5637F-7628-4E44-A102-C5058D72490E}"/>
+    <hyperlink ref="H39" r:id="rId44" location="Property:resource_replaces" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_replaces" xr:uid="{E36526AC-BC78-DA40-ADB1-F4D2B1ACA6C4}"/>
+    <hyperlink ref="H38" r:id="rId45" location="Property:resource_previous_version" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_previous_version" xr:uid="{E3D8F61B-49F6-464E-BC82-5DBC69911BCF}"/>
+    <hyperlink ref="H37" r:id="rId46" location="Property:resource_has_version" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_has_version" xr:uid="{6CD6D21F-844A-C949-9E15-F1CEF560A7EA}"/>
+    <hyperlink ref="H36" r:id="rId47" location="Property:resource_has_current_version" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_has_current_version" xr:uid="{EEDE9931-ACF2-5643-8D6E-20FA16B55754}"/>
+    <hyperlink ref="H35" r:id="rId48" location="Property:resource_qualified_attribution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_qualified_attribution" xr:uid="{56F4ECA3-5259-4846-8948-5075D94F5468}"/>
+    <hyperlink ref="H34" r:id="rId49" location="Property:resource_update_date" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_update_date" xr:uid="{ECB7149F-7869-964C-988A-7AE78570C7DC}"/>
+    <hyperlink ref="H33" r:id="rId50" location="Property:resource_type" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_type" xr:uid="{3946DD32-D9FE-E84E-A4F9-D11E8416039F}"/>
+    <hyperlink ref="H32" r:id="rId51" location="Property:resource_title" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_title" xr:uid="{81970A81-2238-4446-8772-270338714FAF}"/>
+    <hyperlink ref="H31" r:id="rId52" location="Property:resource_theme" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_theme" xr:uid="{A1269B6F-09D2-5C46-9388-7B012C59498F}"/>
+    <hyperlink ref="H30" r:id="rId53" location="Property:resource_release_date" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_release_date" xr:uid="{C7728A15-3E9C-9840-ABD4-3635E9E18CFD}"/>
+    <hyperlink ref="H29" r:id="rId54" location="Property:resource_publisher" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_publisher" xr:uid="{09F30512-D7C0-3443-9DC1-BBC017A1ED29}"/>
+    <hyperlink ref="H28" r:id="rId55" location="Property:resource_qualified_relation" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_qualified_relation" xr:uid="{D42CEE26-23BD-3246-B56F-7EBE46608A40}"/>
+    <hyperlink ref="H27" r:id="rId56" location="Property:resource_rights" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_rights" xr:uid="{4F81FDC3-502D-C840-851B-8C75E2571FC4}"/>
+    <hyperlink ref="H26" r:id="rId57" location="Property:resource_relation" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_relation" xr:uid="{C53593DA-DA12-DA4B-8726-B7BC9FC75366}"/>
+    <hyperlink ref="H25" r:id="rId58" location="Property:resource_language" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_language" xr:uid="{EEEFA9D2-465B-8740-8E35-E0AFD5DA0039}"/>
+    <hyperlink ref="H24" r:id="rId59" location="Property:resource_license" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_license" xr:uid="{B90B449D-9A4A-0349-B0CC-07CA5E6E5B36}"/>
+    <hyperlink ref="H23" r:id="rId60" location="Property:resource_landing_page" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_landing_page" xr:uid="{1B734D2C-8E73-5847-A0A1-B3C9195B82A8}"/>
+    <hyperlink ref="H22" r:id="rId61" location="Property:resource_keyword" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_keyword" xr:uid="{67A0F5EE-6C64-4A4C-B5C0-C92AF4420BA3}"/>
+    <hyperlink ref="H21" r:id="rId62" location="Property:resource_is_referenced_by" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_is_referenced_by" xr:uid="{EC2E9B94-1195-8241-9595-1316393422DC}"/>
+    <hyperlink ref="H20" r:id="rId63" location="Property:resource_identifier" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_identifier" xr:uid="{36E633C2-799A-534C-8CB3-9DB957162DD4}"/>
+    <hyperlink ref="H19" r:id="rId64" location="Property:resource_has_policy" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_has_policy" xr:uid="{7E16FC58-B149-384D-810D-26DF97EB1462}"/>
+    <hyperlink ref="H18" r:id="rId65" location="Property:resource_description" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_description" xr:uid="{BEAF687C-5273-744F-983E-3D4027D3730D}"/>
+    <hyperlink ref="H16" r:id="rId66" location="Property:resource_contact_point" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_contact_point" xr:uid="{9FA13E35-2375-FF46-86EB-33D214472BF2}"/>
+    <hyperlink ref="H15" r:id="rId67" location="Property:resource_conforms_to" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_conforms_to" xr:uid="{D8F5F31E-EF98-7845-8438-1C458BACDED4}"/>
+    <hyperlink ref="H14" r:id="rId68" location="Property:resource_access_rights" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_access_rights" xr:uid="{943CCEA7-11B0-B641-86C2-5D84FF8DF1AE}"/>
+    <hyperlink ref="H13" r:id="rId69" location="Property:dataset_was_generated_by" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_was_generated_by" xr:uid="{7F4111B8-AC9D-9C4A-B6AF-A7FACBC34E95}"/>
+    <hyperlink ref="H12" r:id="rId70" location="Property:dataset_temporal_resolution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_temporal_resolution" xr:uid="{415C4DF4-BD5A-954F-B48A-C9DA78AF8EEF}"/>
+    <hyperlink ref="H11" r:id="rId71" location="Property:dataset_temporal" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_temporal" xr:uid="{3BF61A19-6225-5E42-B7D9-E985B1AE2111}"/>
+    <hyperlink ref="H10" r:id="rId72" location="Property:dataset_spatial_resolution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_spatial_resolution" xr:uid="{DF3F8F18-359B-DC47-803F-A2B70CC5831C}"/>
+    <hyperlink ref="H9" r:id="rId73" location="Property:dataset_spatial" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_spatial" xr:uid="{48E54848-5D70-E04F-9729-085CFE9E9019}"/>
+    <hyperlink ref="H8" r:id="rId74" location="Property:dataset_in_series" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_in_series" xr:uid="{0F7EC03F-DF2B-6246-A389-4E9DE1302051}"/>
+    <hyperlink ref="H7" r:id="rId75" location="Property:dataset_frequency" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_frequency" xr:uid="{9E1C1A79-9AFF-214C-81A6-930D912CC2B9}"/>
+    <hyperlink ref="H6" r:id="rId76" location="Property:dataset_distribution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:dataset_distribution" xr:uid="{8E0EEA2D-E1BD-074F-9F21-CAC56ABF3E36}"/>
+    <hyperlink ref="L6" r:id="rId77" location="dataset-access-rights" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-access-rights" xr:uid="{9CEAD563-21C6-43F6-9990-7E580AA8B97B}"/>
+    <hyperlink ref="L7" r:id="rId78" location="dataset-applicable-legislation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-applicable-legislation" xr:uid="{AE826471-CFC0-425D-BEFB-EF8922F055FA}"/>
+    <hyperlink ref="L8" r:id="rId79" location="dataset-conforms-to" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-conforms-to" xr:uid="{9AD96652-0934-453A-9EF0-3CF7E8456C83}"/>
+    <hyperlink ref="L9" r:id="rId80" location="dataset-contact-point" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-contact-point" xr:uid="{8F9978B4-CAB0-4755-8B92-77953B6AEB6F}"/>
+    <hyperlink ref="L10" r:id="rId81" location="dataset-creator" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-creator" xr:uid="{880E7A06-A002-4C9F-BBA1-6A28BBC91220}"/>
+    <hyperlink ref="L11" r:id="rId82" location="dataset-dataset-distribution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-dataset-distribution" xr:uid="{9F3EC6F2-58CC-400D-A1F6-24B119E2CDC8}"/>
+    <hyperlink ref="L12" r:id="rId83" location="dataset-description" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-description" xr:uid="{1F394A60-1909-4698-A4F6-9665654DDB6E}"/>
+    <hyperlink ref="L13" r:id="rId84" location="dataset-documentation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-documentation" xr:uid="{92FDE0B3-41F0-4255-88DD-9DEEC457A3DA}"/>
+    <hyperlink ref="L14" r:id="rId85" location="dataset-frequency" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-frequency" xr:uid="{0EC389FC-5D30-4893-970F-3DBB0CA1E6E8}"/>
+    <hyperlink ref="L15" r:id="rId86" location="dataset-geographical-coverage" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-geographical-coverage" xr:uid="{DE508D21-F004-4407-BC80-B5AB41453573}"/>
+    <hyperlink ref="L16" r:id="rId87" location="dataset-has-version" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-has-version" xr:uid="{E7FAB7B6-6152-4296-9854-322B89F4F009}"/>
+    <hyperlink ref="L18" r:id="rId88" location="dataset-identifier" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-identifier" xr:uid="{CE2B4D47-B006-49AC-9725-11024159BD49}"/>
+    <hyperlink ref="L19" r:id="rId89" location="dataset-in-series" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-in-series" xr:uid="{4EFF7FAD-29F1-497E-8AAF-1F4D71767D1D}"/>
+    <hyperlink ref="L20" r:id="rId90" location="dataset-is-referenced-by" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-is-referenced-by" xr:uid="{23F629BA-AD20-4375-9438-003AC4D03CF8}"/>
+    <hyperlink ref="L21" r:id="rId91" location="dataset-keyword" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-keyword" xr:uid="{9ECEF5A6-7B24-4088-96CA-E53BDCA42FF7}"/>
+    <hyperlink ref="L22" r:id="rId92" location="dataset-landing-page" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-landing-page" xr:uid="{316B9E74-97AB-45FA-B335-22CB41B021ED}"/>
+    <hyperlink ref="L23" r:id="rId93" location="dataset-language" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-language" xr:uid="{F75899B7-A40F-4159-807C-977B1A496350}"/>
+    <hyperlink ref="L24" r:id="rId94" location="dataset-modification-date" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-modification-date" xr:uid="{6A4BABD2-2B9D-49D8-8DE9-7EFECE07EC75}"/>
+    <hyperlink ref="L25" r:id="rId95" location="dataset-other-identifier" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-other-identifier" xr:uid="{8504FB19-A049-4CD9-83C7-4806431B08E1}"/>
+    <hyperlink ref="L26" r:id="rId96" location="dataset-provenance" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-provenance" xr:uid="{70759929-430F-42EE-87D2-64E4AC7A8001}"/>
+    <hyperlink ref="L27" r:id="rId97" location="dataset-publisher" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-publisher" xr:uid="{7CE683D9-4941-48D8-9492-32563C59F558}"/>
+    <hyperlink ref="L28" r:id="rId98" location="dataset-qualified-attribution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-qualified-attribution" xr:uid="{37F0010A-434A-4369-BE1F-0B714AE33F6A}"/>
+    <hyperlink ref="L29" r:id="rId99" location="dataset-qualified-relation" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-qualified-relation" xr:uid="{AB26D5A7-ADBA-442A-91B1-289E3B933990}"/>
+    <hyperlink ref="L30" r:id="rId100" location="dataset-related-resource" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-related-resource" xr:uid="{1D647FAF-F3C5-4C6D-A0B3-3F0FF10448DC}"/>
+    <hyperlink ref="L31" r:id="rId101" location="dataset-release-date" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-release-date" xr:uid="{85E03247-B0E8-4018-9A2D-E57128BDFF74}"/>
+    <hyperlink ref="L32" r:id="rId102" location="dataset-sample" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-sample" xr:uid="{0EA675E6-A43F-45E8-9371-C372512618AA}"/>
+    <hyperlink ref="L33" r:id="rId103" location="dataset-source" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-source" xr:uid="{7BBEA3D2-45A4-488D-BA0E-B339BE282B84}"/>
+    <hyperlink ref="L34" r:id="rId104" location="dataset-spatial-resolution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-spatial-resolution" xr:uid="{14324CC2-DA2E-4946-A213-36B1C2C668FD}"/>
+    <hyperlink ref="L35" r:id="rId105" location="dataset-status" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-status" xr:uid="{8A2074A1-9B59-4D3C-992A-CEDAABC05871}"/>
+    <hyperlink ref="L36" r:id="rId106" location="dataset-temporal-coverage" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-temporal-coverage" xr:uid="{0D031696-F903-4AB7-AC24-8085B57AAE1E}"/>
+    <hyperlink ref="L37" r:id="rId107" location="dataset-temporal-resolution" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-temporal-resolution" xr:uid="{ABD779D7-B27B-43CE-9B2A-C29EE5AE255F}"/>
+    <hyperlink ref="L38" r:id="rId108" location="dataset-theme" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-theme" xr:uid="{0B98450F-EF14-4A91-B5AB-6F9A09F5C5E2}"/>
+    <hyperlink ref="L39" r:id="rId109" location="dataset-title" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-title" xr:uid="{033F6C4C-25F5-4914-97A3-033D71DC531F}"/>
+    <hyperlink ref="L40" r:id="rId110" location="dataset-type" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-type" xr:uid="{8248C430-5F03-42D9-8BFA-095B1A41DF4F}"/>
+    <hyperlink ref="L41" r:id="rId111" location="dataset-version" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-version" xr:uid="{DC452554-0C7B-4C27-8673-608586E921C7}"/>
+    <hyperlink ref="L42" r:id="rId112" location="dataset-version-notes" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-version-notes" xr:uid="{C027DD97-9BE2-4300-80D5-BDEBABC15FE9}"/>
+    <hyperlink ref="L43" r:id="rId113" location="dataset-was-generated-by" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-was-generated-by" xr:uid="{576CF388-10DD-40D5-B6FF-B3ED11D260CA}"/>
+    <hyperlink ref="L17" r:id="rId114" location="dataset-hvd-category" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-hvd-category" xr:uid="{E22FDE24-B94D-45D3-A913-2E631D5B4AA0}"/>
+    <hyperlink ref="H17" r:id="rId115" location="Property:resource_creator" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:resource_creator" xr:uid="{53FE8331-5F14-0643-B21F-3CFA62DAF315}"/>
+    <hyperlink ref="I17" r:id="rId116" location="dataset-hvd-category" display="https://geonovum.github.io/DCAT-AP-NL30/ - dataset-hvd-category" xr:uid="{C9393F7F-6A58-5D44-BC14-6EEFFC0BEA8C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId117"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C46D36C-13CA-45DA-9692-AB842EA2C541}">
+  <dimension ref="A2:Q51"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.625" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="133" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
+    <col min="9" max="11" width="20.875" customWidth="1"/>
+    <col min="12" max="12" width="23.625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="19.5">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+    </row>
+    <row r="4" spans="1:17" ht="23.25">
+      <c r="A4" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="21">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="21">
+      <c r="A7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="18" t="str">
+        <f t="shared" ref="D7:D31" si="0">_xlfn.XLOOKUP(B7,L:L,M:M)</f>
+        <v>A</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" ht="21">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="21">
+      <c r="B9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F9" t="s">
+        <v>275</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="I9" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" ht="21">
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="I10" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" ht="21">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="1:17" ht="21">
+      <c r="B12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="E12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="I12" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="M12" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="1:17" ht="21">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="F13" t="s">
+        <v>274</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="1:17" ht="21">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="1:17" ht="21">
+      <c r="A15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" s="14"/>
+      <c r="H15" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="1:17" ht="21">
+      <c r="B16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="G16" s="14"/>
+      <c r="I16" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="1:17" ht="21">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E17" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" t="s">
+        <v>279</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="1:17" ht="21">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="1:17" ht="21">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="1:17" ht="21">
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" t="s">
+        <v>271</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="I20" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="1:17" ht="21">
+      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>V</v>
+      </c>
+      <c r="E21" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="1:17" ht="21">
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="E22" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" t="s">
+        <v>265</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="I22" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="1:17" ht="21">
+      <c r="A23" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" t="s">
+        <v>258</v>
+      </c>
+      <c r="D23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E23" t="s">
+        <v>207</v>
+      </c>
+      <c r="F23" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="L23" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="16"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.95" customHeight="1">
+      <c r="A24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="E24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q24" s="16"/>
+    </row>
+    <row r="25" spans="1:17" ht="21">
+      <c r="A25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="E25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="L25" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q25" s="16"/>
+    </row>
+    <row r="26" spans="1:17" ht="21">
+      <c r="A26" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="E26" t="s">
+        <v>198</v>
+      </c>
+      <c r="F26" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="14"/>
+      <c r="H26" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="1:17" ht="21">
+      <c r="A27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="E27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" t="s">
+        <v>268</v>
+      </c>
+      <c r="G27" s="14"/>
+      <c r="H27" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="L27" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="1:17" ht="21">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="E28" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="14"/>
+      <c r="H28" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="1:17" ht="21">
+      <c r="B29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="E29" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" t="s">
+        <v>267</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="I29" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="M29" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="16"/>
+    </row>
+    <row r="30" spans="1:17" ht="21">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="E30" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q30" s="16"/>
+    </row>
+    <row r="31" spans="1:17" ht="21">
+      <c r="A31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>159</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>O</v>
+      </c>
+      <c r="E31" t="s">
+        <v>198</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q31" s="16"/>
+    </row>
+    <row r="32" spans="1:17" ht="21">
+      <c r="G32" s="14"/>
+      <c r="Q32" s="16"/>
+    </row>
+    <row r="33" spans="7:17" ht="21">
+      <c r="G33" s="14"/>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q33" s="16"/>
+    </row>
+    <row r="34" spans="7:17" ht="21">
+      <c r="G34" s="14"/>
+      <c r="J34" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q34" s="16"/>
+    </row>
+    <row r="35" spans="7:17" ht="21">
+      <c r="G35" s="14"/>
+      <c r="J35" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" s="16"/>
+    </row>
+    <row r="36" spans="7:17" ht="21">
+      <c r="G36" s="14"/>
+      <c r="J36" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="16"/>
+    </row>
+    <row r="37" spans="7:17" ht="21">
+      <c r="G37" s="14"/>
+      <c r="J37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="16"/>
+    </row>
+    <row r="38" spans="7:17" ht="21">
+      <c r="G38" s="14"/>
+      <c r="J38" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="16"/>
+    </row>
+    <row r="39" spans="7:17" ht="21">
+      <c r="G39" s="14"/>
+      <c r="J39" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q39" s="16"/>
+    </row>
+    <row r="40" spans="7:17" ht="21">
+      <c r="G40" s="14"/>
+      <c r="J40" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="16"/>
+    </row>
+    <row r="41" spans="7:17" ht="21">
+      <c r="G41" s="14"/>
+      <c r="J41" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="16"/>
+    </row>
+    <row r="42" spans="7:17" ht="21">
+      <c r="G42" s="14"/>
+      <c r="J42" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q42" s="16"/>
+    </row>
+    <row r="43" spans="7:17" ht="21">
+      <c r="G43" s="14"/>
+      <c r="J43" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q43" s="16"/>
+    </row>
+    <row r="44" spans="7:17">
+      <c r="G44" s="14"/>
+      <c r="J44" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="7:17">
+      <c r="G45" s="14"/>
+      <c r="J45" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="7:17">
+      <c r="J46" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="7:17">
+      <c r="J47" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="7:17" ht="31.5">
+      <c r="J48" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" ht="31.5">
+      <c r="J49" s="22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10">
+      <c r="J50" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="10:10">
+      <c r="J51" s="36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I6:I29">
+    <sortCondition ref="I6:I29"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="H6" r:id="rId1" location="Property:distribution_access_rights" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_access_rights" xr:uid="{01477E7B-F848-4DDA-A10B-F0114FC05F12}"/>
+    <hyperlink ref="H8" r:id="rId2" location="Property:distribution_access_url" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_access_url" xr:uid="{2DE518D4-704A-41F3-8400-C15F238CF98E}"/>
+    <hyperlink ref="H7" r:id="rId3" location="Property:distribution_access_service" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_access_service" xr:uid="{9D33435D-88B0-4BC9-8765-2151F6FBB576}"/>
+    <hyperlink ref="H11" r:id="rId4" location="Property:distribution_size" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_size" xr:uid="{8FD0611B-120E-461C-BD30-A66B8B551978}"/>
+    <hyperlink ref="H13" r:id="rId5" location="Property:distribution_compression_format" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_compression_format" xr:uid="{60BCBBAB-161E-48C5-B954-8E1573235717}"/>
+    <hyperlink ref="H14" r:id="rId6" location="Property:distribution_conforms_to" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_conforms_to" xr:uid="{97C5D413-E905-4B9C-9605-D40C5ECC88E5}"/>
+    <hyperlink ref="H15" r:id="rId7" location="Property:distribution_description" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_description" xr:uid="{2172FA11-90B2-4446-9137-A5C761BC6E60}"/>
+    <hyperlink ref="H17" r:id="rId8" location="Property:distribution_download_url" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_download_url" xr:uid="{83684473-6823-4E82-8BEA-523A1E53483B}"/>
+    <hyperlink ref="H18" r:id="rId9" location="Property:distribution_format" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_format" xr:uid="{8BC1837D-D3AB-44C4-828B-F8E76BA74BCB}"/>
+    <hyperlink ref="H19" r:id="rId10" location="Property:distribution_has_policy" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_has_policy" xr:uid="{FEBC730C-1619-4BA2-87AE-FF04A478F814}"/>
+    <hyperlink ref="H21" r:id="rId11" location="Property:distribution_license" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_license" xr:uid="{C2A3F941-EEBE-44FE-BFDB-781F4876C3BA}"/>
+    <hyperlink ref="H23" r:id="rId12" location="Property:distribution_media_type" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_media_type" xr:uid="{1FAF043A-E1E9-48F2-B04D-D0891B18533F}"/>
+    <hyperlink ref="H25" r:id="rId13" location="Property:distribution_packaging_format" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_packaging_format" xr:uid="{B2D9920F-357F-4939-9818-9C126886C5BC}"/>
+    <hyperlink ref="H26" r:id="rId14" location="Property:distribution_release_date" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_release_date" xr:uid="{8AE82FF8-5413-45AC-8E9A-7BD0EAAF42BD}"/>
+    <hyperlink ref="H27" r:id="rId15" location="Property:distribution_rights" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_rights" xr:uid="{55066F25-1D47-403A-889B-9622F6AF4155}"/>
+    <hyperlink ref="H28" r:id="rId16" location="Property:distribution_spatial_resolution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_spatial_resolution" xr:uid="{CB516896-B728-4A50-B345-C29B97B0682D}"/>
+    <hyperlink ref="H30" r:id="rId17" location="Property:distribution_temporal_resolution" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_temporal_resolution" xr:uid="{ABC3E614-C47D-46ED-A3C2-0C05CB4C9017}"/>
+    <hyperlink ref="H31" r:id="rId18" location="Property:distribution_title" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_title" xr:uid="{F3B369D4-07E3-4EE1-A9AA-C4FC4B6A0668}"/>
+    <hyperlink ref="H24" r:id="rId19" location="Property:distribution_update_date" display="https://www.w3.org/TR/vocab-dcat-3/ - Property:distribution_update_date" xr:uid="{83626C7B-F836-4FB0-9A0E-AC329314127C}"/>
+    <hyperlink ref="I7" r:id="rId20" location="distribution-access-service" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-access-service" xr:uid="{87C17903-E6FB-41EC-BD72-8D3FCFE2C606}"/>
+    <hyperlink ref="I8" r:id="rId21" location="distribution-access-url" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-access-url" xr:uid="{B737BACD-D4BC-478F-85A4-41E70CDA085D}"/>
+    <hyperlink ref="I9" r:id="rId22" location="distribution-applicable-legislation" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-applicable-legislation" xr:uid="{73B04D66-A06B-4538-8A35-ECC1753431ED}"/>
+    <hyperlink ref="I10" r:id="rId23" location="distribution-availability" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-availability" xr:uid="{0AC04256-B52F-4215-891F-4DEB71F212D9}"/>
+    <hyperlink ref="I11" r:id="rId24" location="distribution-byte-size" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-byte-size" xr:uid="{3E4F601D-089B-482E-BDB1-F919F46AC577}"/>
+    <hyperlink ref="I12" r:id="rId25" location="distribution-checksum" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-checksum" xr:uid="{14907FC1-9788-4062-A8B1-F3FFA372091B}"/>
+    <hyperlink ref="I13" r:id="rId26" location="distribution-compression-format" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-compression-format" xr:uid="{ED044104-F5DC-49D9-81CC-96E29F38772A}"/>
+    <hyperlink ref="I15" r:id="rId27" location="distribution-description" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-description" xr:uid="{FCE3A9B0-C3C5-49A6-937F-22FCF0374366}"/>
+    <hyperlink ref="I16" r:id="rId28" location="distribution-documentation" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-documentation" xr:uid="{F6F60976-99C4-4F48-9192-AEC8F7783FED}"/>
+    <hyperlink ref="I17" r:id="rId29" location="distribution-download-url" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-download-url" xr:uid="{94950846-CF3A-4174-B6CB-F7293BA91782}"/>
+    <hyperlink ref="I18" r:id="rId30" location="distribution-format" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-format" xr:uid="{EC9D72C6-A126-4B5B-8C42-96F01EE1A0EC}"/>
+    <hyperlink ref="I19" r:id="rId31" location="distribution-has-policy" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-has-policy" xr:uid="{A01A8760-4782-4DF0-99F0-2BECCCBA437D}"/>
+    <hyperlink ref="I20" r:id="rId32" location="distribution-language" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-language" xr:uid="{239A8488-8179-4BEE-8FA3-DDB6C8C8F718}"/>
+    <hyperlink ref="I21" r:id="rId33" location="distribution-licence" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-licence" xr:uid="{424F2CEF-848E-4C4B-9454-C9D1D4C8550E}"/>
+    <hyperlink ref="I22" r:id="rId34" location="distribution-linked-schemas" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-linked-schemas" xr:uid="{C02319F0-C01D-4F13-AD2E-0A2C5C8E37D8}"/>
+    <hyperlink ref="I23" r:id="rId35" location="distribution-media-type" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-media-type" xr:uid="{B9EF527A-DF6D-4352-9728-2EE8F8393523}"/>
+    <hyperlink ref="I24" r:id="rId36" location="distribution-modification-date" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-modification-date" xr:uid="{233D1C08-CF5C-4D73-A4A3-190F7F553EF9}"/>
+    <hyperlink ref="I25" r:id="rId37" location="distribution-packaging-format" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-packaging-format" xr:uid="{A93AD0D8-AD89-45D5-B7E9-5225D76E2E1C}"/>
+    <hyperlink ref="I26" r:id="rId38" location="distribution-release-date" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-release-date" xr:uid="{FDE3E79D-7CD2-4ED5-8242-84FBBC77E6D4}"/>
+    <hyperlink ref="I27" r:id="rId39" location="distribution-rights" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-rights" xr:uid="{CBA00992-BD21-45EF-B05B-803D309AE9CC}"/>
+    <hyperlink ref="I28" r:id="rId40" location="distribution-spatial-resolution" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-spatial-resolution" xr:uid="{6F6C57F3-3201-4813-AE7A-C8DB6420FBFD}"/>
+    <hyperlink ref="I29" r:id="rId41" location="distribution-status" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-status" xr:uid="{C8074AE0-EB36-4B20-B66B-439643A10037}"/>
+    <hyperlink ref="I30" r:id="rId42" location="distribution-temporal-resolution" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-temporal-resolution" xr:uid="{4D1BB11F-FE9B-43CE-BE78-99EB019FF363}"/>
+    <hyperlink ref="I31" r:id="rId43" location="distribution-title" display="https://docs.geostandaarden.nl/dcat/dcat-ap-nl30/ - distribution-title" xr:uid="{D863DF0F-D36F-4823-B911-AD544E7F4A5E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId45"/>
+    <tablePart r:id="rId46"/>
+  </tableParts>
 </worksheet>
 </file>